--- a/Patron_SSE.xlsx
+++ b/Patron_SSE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="526" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_SSE" sheetId="1" state="visible" r:id="rId2"/>
@@ -118,12 +118,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="380">
   <si>
     <t>SOLICITUD  DE SERVICIO EXTERNO A LABORATORIO</t>
   </si>
   <si>
     <t>N°</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
   <si>
     <t>ANTECEDENTES</t>
@@ -895,7 +898,7 @@
 Estaciones</t>
   </si>
   <si>
-    <t>Agregar en columna A {codigos de estaciones} y marcar las relaciones con '1' en la matriz que corresponda</t>
+    <t>Agregar en columna A {codigos de estaciones} y marcar las relaciones con '1' en la matriz que corresponda, no llenar el resto</t>
   </si>
   <si>
     <t>Si requiere más espacios agregue o inserte filas (borre los datos que hay ahora)</t>
@@ -1077,46 +1080,49 @@
     <t>Llena Jefe de área para los R08</t>
   </si>
   <si>
-    <t>SGS SANTIAGO</t>
+    <t>LAB_01</t>
   </si>
   <si>
     <t>Fecha material 04-05-2015</t>
   </si>
   <si>
-    <t>ALS ANTOFAGASTA</t>
-  </si>
-  <si>
-    <t>BIODIVERSA</t>
+    <t>LAB_02</t>
+  </si>
+  <si>
+    <t>LAB_03</t>
+  </si>
+  <si>
+    <t>LAB_04</t>
+  </si>
+  <si>
+    <t>Adjuntos a R08</t>
+  </si>
+  <si>
+    <t>Llena Jefe de área .Escribir en cada celda, solo 'si', si adjunta algún documento en particular para cada matriz y laboratorio</t>
+  </si>
+  <si>
+    <t>Hay adjuntos?</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>LABORATORIO</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>A nombre</t>
   </si>
   <si>
     <t>HIDROLAB</t>
-  </si>
-  <si>
-    <t>Adjuntos a R08</t>
-  </si>
-  <si>
-    <t>Llena Jefe de área .Escribir en cada celda, solo 'si', si adjunta algún documento en particular para cada matriz y laboratorio</t>
-  </si>
-  <si>
-    <t>Hay adjuntos?</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>LABORATORIO</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN</t>
-  </si>
-  <si>
-    <t>HORARIO</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>A nombre</t>
   </si>
   <si>
     <t>AVENIDA CENTRAL N°681, QUILICURA SANTIAGO</t>
@@ -1139,6 +1145,9 @@
 GABRIELA FRANYOLA (muestras)</t>
   </si>
   <si>
+    <t>SGS SANTIAGO</t>
+  </si>
+  <si>
     <t>PUERTO MADERO 130. PUDAHUEL</t>
   </si>
   <si>
@@ -1158,6 +1167,9 @@
   </si>
   <si>
     <t>CECILIA TAPIA</t>
+  </si>
+  <si>
+    <t>ALS ANTOFAGASTA</t>
   </si>
   <si>
     <t>JUAN GUTEMBERG N°438, GALPÓN 9 Y 10. ANTOFAGASTA</t>
@@ -1228,6 +1240,9 @@
     <t>VERÓNICA RIVAS (Administración)
 ARTURO GIVOVICH
 (muestras)</t>
+  </si>
+  <si>
+    <t>BIODIVERSA</t>
   </si>
   <si>
     <t>ARRAÚ MÉNDEZ S/N PEDRO DE VALDIVIA. CONCEPCIÖN</t>
@@ -1694,7 +1709,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1927,16 +1942,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2090,10 +2101,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S65536"/>
+  <dimension ref="A1:S65535"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2124,8 +2135,8 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="n">
-        <v>100</v>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -2137,7 +2148,7 @@
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2160,10 +2171,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2185,10 +2196,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2210,10 +2221,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2235,10 +2246,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -2260,7 +2271,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13" t="n">
         <f aca="true">+TODAY()</f>
@@ -2286,7 +2297,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="n">
         <v>42093</v>
@@ -2311,7 +2322,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>42095</v>
@@ -2336,14 +2347,14 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="20" t="n">
         <f aca="false">+B10-B8</f>
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -2356,7 +2367,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -2364,7 +2375,7 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -2373,61 +2384,61 @@
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -2435,26 +2446,26 @@
     </row>
     <row r="16" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -2462,26 +2473,26 @@
     </row>
     <row r="17" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -2489,26 +2500,26 @@
     </row>
     <row r="18" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -2516,26 +2527,26 @@
     </row>
     <row r="19" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -2543,26 +2554,26 @@
     </row>
     <row r="20" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -2570,26 +2581,26 @@
     </row>
     <row r="21" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -2597,26 +2608,26 @@
     </row>
     <row r="22" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -2624,26 +2635,26 @@
     </row>
     <row r="23" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -2651,26 +2662,26 @@
     </row>
     <row r="24" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -2678,26 +2689,26 @@
     </row>
     <row r="25" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -2705,26 +2716,26 @@
     </row>
     <row r="26" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -2732,26 +2743,26 @@
     </row>
     <row r="27" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -2759,26 +2770,26 @@
     </row>
     <row r="28" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -2786,26 +2797,26 @@
     </row>
     <row r="29" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -2813,26 +2824,26 @@
     </row>
     <row r="30" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -2840,26 +2851,26 @@
     </row>
     <row r="31" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -2867,26 +2878,26 @@
     </row>
     <row r="32" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -2894,26 +2905,26 @@
     </row>
     <row r="33" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -2921,26 +2932,26 @@
     </row>
     <row r="34" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
@@ -2948,26 +2959,26 @@
     </row>
     <row r="35" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I35" s="31"/>
       <c r="J35" s="31"/>
@@ -2975,26 +2986,26 @@
     </row>
     <row r="36" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
@@ -3002,26 +3013,26 @@
     </row>
     <row r="37" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
@@ -3029,26 +3040,26 @@
     </row>
     <row r="38" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
@@ -3056,26 +3067,26 @@
     </row>
     <row r="39" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
@@ -3083,26 +3094,26 @@
     </row>
     <row r="40" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
@@ -3110,26 +3121,26 @@
     </row>
     <row r="41" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
@@ -3137,26 +3148,26 @@
     </row>
     <row r="42" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G42" s="31"/>
       <c r="H42" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
@@ -3164,26 +3175,26 @@
     </row>
     <row r="43" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
@@ -3191,26 +3202,26 @@
     </row>
     <row r="44" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G44" s="31"/>
       <c r="H44" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -3218,26 +3229,26 @@
     </row>
     <row r="45" s="33" customFormat="true" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
@@ -3245,26 +3256,26 @@
     </row>
     <row r="46" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
@@ -3272,26 +3283,26 @@
     </row>
     <row r="47" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="34"/>
@@ -3299,26 +3310,26 @@
     </row>
     <row r="48" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
@@ -3326,26 +3337,26 @@
     </row>
     <row r="49" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
@@ -3353,26 +3364,26 @@
     </row>
     <row r="50" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G50" s="31"/>
       <c r="H50" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
@@ -3380,26 +3391,26 @@
     </row>
     <row r="51" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
@@ -3407,26 +3418,26 @@
     </row>
     <row r="52" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
@@ -3434,26 +3445,26 @@
     </row>
     <row r="53" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
@@ -3461,10 +3472,10 @@
     </row>
     <row r="55" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -3477,7 +3488,7 @@
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
       <c r="B56" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
@@ -3498,36 +3509,36 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G58" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I58" s="41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B59" s="43" t="n">
         <v>1</v>
@@ -3552,7 +3563,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B60" s="43" t="n">
         <v>1</v>
@@ -3577,7 +3588,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B61" s="43" t="n">
         <v>1</v>
@@ -3600,7 +3611,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B62" s="43" t="n">
         <v>1</v>
@@ -3623,7 +3634,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B63" s="43" t="n">
         <v>1</v>
@@ -3648,7 +3659,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B64" s="43" t="n">
         <v>1</v>
@@ -3671,7 +3682,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B65" s="43" t="n">
         <v>1</v>
@@ -3694,7 +3705,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B66" s="43" t="n">
         <v>1</v>
@@ -3719,7 +3730,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B67" s="43" t="n">
         <v>1</v>
@@ -3742,7 +3753,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -3763,7 +3774,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -3784,7 +3795,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -3805,7 +3816,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -3826,7 +3837,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -3847,7 +3858,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -3868,7 +3879,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -3889,7 +3900,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -3910,7 +3921,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -3931,7 +3942,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -3952,7 +3963,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -3973,7 +3984,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -3994,7 +4005,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B80" s="43" t="n">
         <v>1</v>
@@ -4029,10 +4040,10 @@
     </row>
     <row r="82" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
@@ -4051,7 +4062,7 @@
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
@@ -4086,10 +4097,10 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,10 +4237,10 @@
     </row>
     <row r="103" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
@@ -4242,7 +4253,7 @@
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="35"/>
       <c r="B104" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
@@ -4265,45 +4276,45 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F106" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J106" s="41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B107" s="51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D107" s="53"/>
       <c r="E107" s="53"/>
@@ -4315,14 +4326,14 @@
     </row>
     <row r="108" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C108" s="56"/>
       <c r="D108" s="57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E108" s="43"/>
       <c r="F108" s="43"/>
@@ -4333,10 +4344,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C109" s="43"/>
       <c r="D109" s="57"/>
@@ -4349,10 +4360,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="B110" s="58" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>322</v>
       </c>
       <c r="C110" s="43"/>
       <c r="D110" s="57"/>
@@ -4365,10 +4376,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="B111" s="58" t="s">
-        <v>322</v>
+        <v>318</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>323</v>
       </c>
       <c r="C111" s="43"/>
       <c r="D111" s="57"/>
@@ -4382,10 +4393,10 @@
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="113" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
@@ -4396,7 +4407,7 @@
     <row r="114" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="35"/>
       <c r="B114" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
@@ -4406,26 +4417,24 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="59"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="B117" s="32" t="s">
         <v>326</v>
       </c>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="58"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" s="32"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -4434,11 +4443,13 @@
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="B118" s="32"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>327</v>
+      </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -4447,13 +4458,11 @@
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>326</v>
-      </c>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B119" s="59"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
@@ -4462,11 +4471,13 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="B120" s="43"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B120" s="59" t="s">
+        <v>327</v>
+      </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -4475,20 +4486,7 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="B1:E1"/>
@@ -4543,7 +4541,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -4557,207 +4555,207 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>331</v>
       </c>
+      <c r="E1" s="60" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>334</v>
       </c>
+      <c r="C3" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>337</v>
       </c>
+      <c r="B4" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>340</v>
       </c>
+      <c r="B5" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>344</v>
       </c>
+      <c r="B6" s="62" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>348</v>
       </c>
+      <c r="B7" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="63" t="s">
-        <v>352</v>
+      <c r="A8" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="62" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>353</v>
+      <c r="A9" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63" t="s">
-        <v>358</v>
+      <c r="A10" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64" t="s">
-        <v>362</v>
+      <c r="A11" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64" t="s">
-        <v>366</v>
+      <c r="A12" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64" t="s">
-        <v>369</v>
+      <c r="A13" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64" t="s">
-        <v>373</v>
+      <c r="A14" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4776,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4793,25 +4791,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="66" t="s">
         <v>262</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
-        <v>261</v>
       </c>
       <c r="B2" s="43" t="n">
         <v>1</v>
@@ -4821,8 +4819,8 @@
       <c r="E2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
-        <v>263</v>
+      <c r="A3" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43" t="n">
@@ -4832,8 +4830,8 @@
       <c r="E3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
-        <v>265</v>
+      <c r="A4" s="66" t="s">
+        <v>266</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -4843,8 +4841,8 @@
       <c r="E4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
-        <v>267</v>
+      <c r="A5" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -4854,48 +4852,48 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
-        <v>32</v>
+      <c r="A9" s="67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="s">
-        <v>261</v>
+      <c r="A10" s="66" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="65" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="65" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="65" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="66" t="s">
-        <v>266</v>
-      </c>
-    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66" t="s">
-        <v>268</v>
+      <c r="A17" s="65" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
